--- a/updatedExcels/S3_AD.xlsx
+++ b/updatedExcels/S3_AD.xlsx
@@ -14000,12 +14000,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -14027,12 +14027,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -14054,12 +14054,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -14081,12 +14081,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -14108,12 +14108,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -14135,12 +14135,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -14162,12 +14162,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -14216,12 +14216,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -14243,12 +14243,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -14297,12 +14297,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -14378,12 +14378,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -14405,12 +14405,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -14432,12 +14432,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -14459,12 +14459,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -14486,12 +14486,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -14567,12 +14567,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -14594,12 +14594,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -14621,12 +14621,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -14729,12 +14729,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -14783,12 +14783,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -14810,12 +14810,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -14837,12 +14837,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -14864,12 +14864,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -14891,12 +14891,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -14918,12 +14918,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -14945,12 +14945,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -14972,12 +14972,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -14999,12 +14999,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -15026,12 +15026,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -15053,12 +15053,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -15080,12 +15080,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -15107,12 +15107,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -15134,12 +15134,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -15161,12 +15161,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -15215,12 +15215,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -15242,12 +15242,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -15269,12 +15269,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -15296,12 +15296,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -15323,12 +15323,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -15350,12 +15350,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -15377,12 +15377,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -15404,12 +15404,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -15431,12 +15431,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -15458,12 +15458,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -15485,12 +15485,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -15539,12 +15539,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -15566,12 +15566,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -15647,12 +15647,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -15674,12 +15674,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -15701,12 +15701,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -15728,12 +15728,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -15755,12 +15755,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -15782,12 +15782,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -15809,12 +15809,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -15836,12 +15836,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -15863,12 +15863,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -15890,12 +15890,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -15917,12 +15917,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -15944,12 +15944,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -15971,12 +15971,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -15998,12 +15998,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -16025,12 +16025,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -16079,12 +16079,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -16106,12 +16106,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -16160,12 +16160,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -16187,12 +16187,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -16214,12 +16214,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -16241,12 +16241,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -16295,12 +16295,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -16322,12 +16322,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -16349,12 +16349,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -16403,12 +16403,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -16430,12 +16430,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -16457,12 +16457,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -16511,12 +16511,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -16538,12 +16538,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -16592,12 +16592,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -16619,12 +16619,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -16646,12 +16646,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -16673,12 +16673,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -16700,12 +16700,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -16727,12 +16727,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -16781,12 +16781,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -16808,12 +16808,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -16835,12 +16835,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -16862,12 +16862,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -16889,12 +16889,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -16943,12 +16943,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -16970,12 +16970,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -16997,12 +16997,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -17078,12 +17078,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -17105,12 +17105,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -17132,12 +17132,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -17159,12 +17159,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -17186,12 +17186,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -17213,12 +17213,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -17240,12 +17240,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -17267,12 +17267,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -17294,12 +17294,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -17321,12 +17321,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -17375,12 +17375,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -17402,12 +17402,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -17429,12 +17429,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -17456,12 +17456,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -17483,12 +17483,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -17510,12 +17510,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -17537,12 +17537,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -17564,12 +17564,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -17591,12 +17591,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -17618,12 +17618,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -17672,12 +17672,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -17699,12 +17699,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -17726,12 +17726,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -17753,12 +17753,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -17834,12 +17834,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -17861,12 +17861,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -17888,12 +17888,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -17915,12 +17915,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -17942,12 +17942,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -17969,12 +17969,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -17996,12 +17996,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -18023,12 +18023,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -18050,12 +18050,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -18077,12 +18077,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -18104,12 +18104,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -18131,12 +18131,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -18158,12 +18158,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -18185,12 +18185,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -18212,12 +18212,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -18239,12 +18239,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -18266,12 +18266,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -18293,12 +18293,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -18320,12 +18320,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -18347,12 +18347,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -18374,12 +18374,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -18401,12 +18401,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -18428,12 +18428,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -18455,12 +18455,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -18482,12 +18482,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -18509,12 +18509,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -18536,12 +18536,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -18563,12 +18563,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -18644,12 +18644,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -18671,12 +18671,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -18725,12 +18725,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -18752,12 +18752,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -18779,12 +18779,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -18806,12 +18806,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -18833,12 +18833,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -18860,12 +18860,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -18887,12 +18887,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -18914,12 +18914,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -18968,12 +18968,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -18995,12 +18995,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -19022,12 +19022,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -19049,12 +19049,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -19157,12 +19157,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -19211,12 +19211,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -19238,12 +19238,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -19265,12 +19265,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -19346,12 +19346,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -19373,12 +19373,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -19400,12 +19400,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -19427,12 +19427,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -19454,12 +19454,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -19481,12 +19481,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -19535,12 +19535,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -19589,12 +19589,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -19616,12 +19616,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -19670,12 +19670,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -19697,12 +19697,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -19724,12 +19724,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -19751,12 +19751,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -19778,12 +19778,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -19805,12 +19805,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -19859,12 +19859,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -19886,12 +19886,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -19967,12 +19967,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -19994,12 +19994,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -20021,12 +20021,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -20048,12 +20048,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -20075,12 +20075,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -20102,12 +20102,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -20129,12 +20129,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -20156,12 +20156,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20183,12 +20183,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -20210,12 +20210,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -20237,12 +20237,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20291,12 +20291,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -20318,12 +20318,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -20345,12 +20345,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -20399,12 +20399,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -20453,12 +20453,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -20480,12 +20480,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -20507,12 +20507,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -20534,12 +20534,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -20561,12 +20561,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -20588,12 +20588,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -20615,12 +20615,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -20642,12 +20642,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -20669,12 +20669,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20696,12 +20696,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -20723,12 +20723,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -20750,12 +20750,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -20777,12 +20777,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20831,12 +20831,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -20858,12 +20858,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -20912,12 +20912,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20939,12 +20939,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -20966,12 +20966,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -20993,12 +20993,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -21020,12 +21020,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -21047,12 +21047,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -21074,12 +21074,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -21101,12 +21101,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21155,12 +21155,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21182,12 +21182,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -21209,12 +21209,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -21263,12 +21263,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -21290,12 +21290,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -21344,12 +21344,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -21371,12 +21371,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -21398,12 +21398,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -21425,12 +21425,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -21452,12 +21452,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -21506,12 +21506,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21533,12 +21533,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21560,12 +21560,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -21587,12 +21587,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21614,12 +21614,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21641,12 +21641,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -21695,12 +21695,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -21722,12 +21722,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -21749,12 +21749,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -21776,12 +21776,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -21803,12 +21803,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -21830,12 +21830,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -21884,12 +21884,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -21911,12 +21911,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -21938,12 +21938,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21965,12 +21965,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21992,12 +21992,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -22019,12 +22019,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22046,12 +22046,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22073,12 +22073,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -22127,12 +22127,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -22154,12 +22154,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -22181,12 +22181,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -22208,12 +22208,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -22235,12 +22235,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -22316,12 +22316,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -22343,12 +22343,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -22370,12 +22370,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22397,12 +22397,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -22451,12 +22451,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -22478,12 +22478,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -22505,12 +22505,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22559,12 +22559,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22586,12 +22586,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -22613,12 +22613,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -22640,12 +22640,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -22667,12 +22667,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -22694,12 +22694,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -22721,12 +22721,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -22748,12 +22748,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -22775,12 +22775,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22829,12 +22829,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22856,12 +22856,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -22883,12 +22883,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -22910,12 +22910,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -22937,12 +22937,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22991,12 +22991,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -23018,12 +23018,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -23045,12 +23045,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -23072,12 +23072,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -23099,12 +23099,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -23126,12 +23126,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -23153,12 +23153,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -23180,12 +23180,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -23207,12 +23207,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23234,12 +23234,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -23288,12 +23288,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -23315,12 +23315,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -23342,12 +23342,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -23369,12 +23369,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23396,12 +23396,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23423,12 +23423,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -23450,12 +23450,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -23477,12 +23477,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -23504,12 +23504,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -23531,12 +23531,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23612,12 +23612,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -23639,12 +23639,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -23666,12 +23666,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -23774,12 +23774,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -23801,12 +23801,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -23882,12 +23882,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23936,12 +23936,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -23963,12 +23963,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -23990,12 +23990,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24017,12 +24017,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -24071,12 +24071,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -24125,12 +24125,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -24152,12 +24152,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24179,12 +24179,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -24206,12 +24206,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -24260,12 +24260,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -24314,12 +24314,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -24341,12 +24341,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24395,12 +24395,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -24422,12 +24422,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24449,12 +24449,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -24476,12 +24476,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24503,12 +24503,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -24530,12 +24530,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -24557,12 +24557,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -24584,12 +24584,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -24638,12 +24638,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24665,12 +24665,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -24692,12 +24692,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -24719,12 +24719,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -24746,12 +24746,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -24773,12 +24773,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24827,12 +24827,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -24854,12 +24854,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24881,12 +24881,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -24908,12 +24908,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24935,12 +24935,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -24962,12 +24962,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -24989,12 +24989,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -25016,12 +25016,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -25043,12 +25043,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -25070,12 +25070,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -25097,12 +25097,12 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -25124,12 +25124,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -25151,12 +25151,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25178,12 +25178,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -25205,12 +25205,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25232,12 +25232,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -25259,12 +25259,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -25286,12 +25286,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -25313,12 +25313,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25340,12 +25340,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25367,12 +25367,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -25394,12 +25394,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -25421,12 +25421,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -25448,12 +25448,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -25475,12 +25475,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -25529,12 +25529,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -25556,12 +25556,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -25583,12 +25583,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25610,12 +25610,12 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -25637,12 +25637,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -25664,12 +25664,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -25691,12 +25691,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -25718,12 +25718,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -25745,12 +25745,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -25772,12 +25772,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -25799,12 +25799,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -25826,12 +25826,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25853,12 +25853,12 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25880,12 +25880,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -25907,12 +25907,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -25934,12 +25934,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -25961,12 +25961,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
@@ -25988,12 +25988,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -26015,12 +26015,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26042,12 +26042,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -26069,12 +26069,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26150,12 +26150,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -26177,12 +26177,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26204,12 +26204,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26231,12 +26231,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -26258,12 +26258,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CSL203</t>
         </is>
       </c>
     </row>
@@ -26285,12 +26285,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>CSL203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -26312,12 +26312,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>CST201</t>
+          <t>CST203</t>
         </is>
       </c>
     </row>
@@ -26339,12 +26339,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CST205</t>
+          <t>MAT203</t>
         </is>
       </c>
     </row>
@@ -26420,12 +26420,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>MAT203</t>
+          <t>CST201</t>
         </is>
       </c>
     </row>
@@ -26447,12 +26447,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CST203</t>
+          <t>CSL201</t>
         </is>
       </c>
     </row>
@@ -26501,12 +26501,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>CSL201</t>
+          <t>CST205</t>
         </is>
       </c>
     </row>
